--- a/Code/Results/Cases/Case_3_245/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_245/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.1240156758696</v>
+        <v>0.8502226508649073</v>
       </c>
       <c r="C2">
-        <v>0.441766135623908</v>
+        <v>0.274295890186977</v>
       </c>
       <c r="D2">
-        <v>0.04295955586265165</v>
+        <v>0.02262213656532452</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5448024604968822</v>
+        <v>0.6855360736699083</v>
       </c>
       <c r="G2">
-        <v>0.0007874598221191887</v>
+        <v>0.00241647875992391</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2864285456787066</v>
+        <v>0.6316091717484298</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1895700675373533</v>
+        <v>0.2797379928387187</v>
       </c>
       <c r="M2">
-        <v>0.3775899126073341</v>
+        <v>0.2204871106269835</v>
       </c>
       <c r="N2">
-        <v>0.7305674215271054</v>
+        <v>1.263930770199558</v>
       </c>
       <c r="O2">
-        <v>1.549646141068678</v>
+        <v>2.321387632367447</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.846351853884983</v>
+        <v>0.7678603602510066</v>
       </c>
       <c r="C3">
-        <v>0.4025864228584197</v>
+        <v>0.2612004100952277</v>
       </c>
       <c r="D3">
-        <v>0.03864130182646619</v>
+        <v>0.02115128993445836</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5001444639726174</v>
+        <v>0.6798511967606018</v>
       </c>
       <c r="G3">
-        <v>0.0007913656591506464</v>
+        <v>0.002419142853369471</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2845948665312861</v>
+        <v>0.6368723246262959</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1751055890590933</v>
+        <v>0.277824218253258</v>
       </c>
       <c r="M3">
-        <v>0.3295618744366067</v>
+        <v>0.2073207977430371</v>
       </c>
       <c r="N3">
-        <v>0.7542665421483434</v>
+        <v>1.274956989684959</v>
       </c>
       <c r="O3">
-        <v>1.44905378654795</v>
+        <v>2.316338765796019</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.676138318049226</v>
+        <v>0.717367556390883</v>
       </c>
       <c r="C4">
-        <v>0.3784731955859257</v>
+        <v>0.2530901214990422</v>
       </c>
       <c r="D4">
-        <v>0.03598115512031086</v>
+        <v>0.02024077513966205</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4737535514040232</v>
+        <v>0.6768320865624275</v>
       </c>
       <c r="G4">
-        <v>0.0007938466093002876</v>
+        <v>0.002420867562895975</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2842056945969986</v>
+        <v>0.6404838703671061</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1664828298123808</v>
+        <v>0.2767955168151985</v>
       </c>
       <c r="M4">
-        <v>0.3002226537283903</v>
+        <v>0.1993093642033941</v>
       </c>
       <c r="N4">
-        <v>0.769806305180559</v>
+        <v>1.282208482665915</v>
       </c>
       <c r="O4">
-        <v>1.390608504013016</v>
+        <v>2.314797927902845</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.606821772615604</v>
+        <v>0.6968122334308191</v>
       </c>
       <c r="C5">
-        <v>0.3686302707320834</v>
+        <v>0.2497677812238663</v>
       </c>
       <c r="D5">
-        <v>0.03489476023399618</v>
+        <v>0.01986789001968958</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4632414424735032</v>
+        <v>0.6757202660513855</v>
       </c>
       <c r="G5">
-        <v>0.0007948787703762611</v>
+        <v>0.002421592828447503</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2842239403720761</v>
+        <v>0.642051084127722</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1630303615162987</v>
+        <v>0.2764131683536846</v>
       </c>
       <c r="M5">
-        <v>0.2882994612851277</v>
+        <v>0.1960631333633529</v>
       </c>
       <c r="N5">
-        <v>0.7763805678643294</v>
+        <v>1.285284647921792</v>
       </c>
       <c r="O5">
-        <v>1.367576696909111</v>
+        <v>2.314561833932203</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.595314028933302</v>
+        <v>0.6934003385159144</v>
       </c>
       <c r="C6">
-        <v>0.3669947937898428</v>
+        <v>0.2492150674320044</v>
       </c>
       <c r="D6">
-        <v>0.0347142176668811</v>
+        <v>0.01980586201222678</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4615100901241362</v>
+        <v>0.6755428041529257</v>
       </c>
       <c r="G6">
-        <v>0.0007950514473272891</v>
+        <v>0.002421714614976039</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2842374117888511</v>
+        <v>0.6423170837063878</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1624606860432749</v>
+        <v>0.2763519071917599</v>
       </c>
       <c r="M6">
-        <v>0.2863214633300473</v>
+        <v>0.1955252221524404</v>
       </c>
       <c r="N6">
-        <v>0.7774866221655898</v>
+        <v>1.285802760880927</v>
       </c>
       <c r="O6">
-        <v>1.363798302229128</v>
+        <v>2.314546287472183</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.67520332911468</v>
+        <v>0.7170902537554582</v>
       </c>
       <c r="C7">
-        <v>0.3783405205834356</v>
+        <v>0.2530453852019008</v>
       </c>
       <c r="D7">
-        <v>0.03596651340640733</v>
+        <v>0.02023575371608644</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4736108210771661</v>
+        <v>0.6768166124659913</v>
       </c>
       <c r="G7">
-        <v>0.0007938604431994446</v>
+        <v>0.002420877253194516</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2842052355012434</v>
+        <v>0.6405046198493167</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1664360247726862</v>
+        <v>0.2767902110340685</v>
       </c>
       <c r="M7">
-        <v>0.3000617270648007</v>
+        <v>0.1992655092503099</v>
       </c>
       <c r="N7">
-        <v>0.7698939982308488</v>
+        <v>1.282249478371497</v>
       </c>
       <c r="O7">
-        <v>1.390294773672167</v>
+        <v>2.31479315778202</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.028206869301187</v>
+        <v>0.8218087011202897</v>
       </c>
       <c r="C8">
-        <v>0.428267282496023</v>
+        <v>0.2697951161098047</v>
       </c>
       <c r="D8">
-        <v>0.04147232480837459</v>
+        <v>0.02211653804376823</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5291806167854674</v>
+        <v>0.6834780478668065</v>
       </c>
       <c r="G8">
-        <v>0.0007887895927708267</v>
+        <v>0.002417378918612267</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2856382001589104</v>
+        <v>0.6333450112017971</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1845268280702186</v>
+        <v>0.2790477750013949</v>
       </c>
       <c r="M8">
-        <v>0.360995573034252</v>
+        <v>0.2159323871763519</v>
       </c>
       <c r="N8">
-        <v>0.738529502886955</v>
+        <v>1.267632756332929</v>
       </c>
       <c r="O8">
-        <v>1.51424254880223</v>
+        <v>2.319323008878769</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.723696223393404</v>
+        <v>1.027733164201663</v>
       </c>
       <c r="C9">
-        <v>0.5258413525679657</v>
+        <v>0.3020828056101834</v>
       </c>
       <c r="D9">
-        <v>0.05220873688943328</v>
+        <v>0.02574523859521349</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6471052516684779</v>
+        <v>0.7002858259977671</v>
       </c>
       <c r="G9">
-        <v>0.0007794857731843702</v>
+        <v>0.002411221411438744</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2946934346227259</v>
+        <v>0.6223227679381829</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2222275669453921</v>
+        <v>0.2846345087666435</v>
       </c>
       <c r="M9">
-        <v>0.4819226973361026</v>
+        <v>0.2491860462005704</v>
       </c>
       <c r="N9">
-        <v>0.6851913180516078</v>
+        <v>1.242785025059348</v>
       </c>
       <c r="O9">
-        <v>1.786000087338323</v>
+        <v>2.340593385131939</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.238308732650751</v>
+        <v>1.179326636567737</v>
       </c>
       <c r="C10">
-        <v>0.5975106826227261</v>
+        <v>0.3254579366024188</v>
       </c>
       <c r="D10">
-        <v>0.06007360824979457</v>
+        <v>0.02837422519262844</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.740364762411744</v>
+        <v>0.7149257070329185</v>
       </c>
       <c r="G10">
-        <v>0.000773016177271885</v>
+        <v>0.002407121650231514</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3057408646329591</v>
+        <v>0.6160689020954919</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.251539968901497</v>
+        <v>0.2894446495395613</v>
       </c>
       <c r="M10">
-        <v>0.5720126382708912</v>
+        <v>0.2739579567332413</v>
       </c>
       <c r="N10">
-        <v>0.6514585361660039</v>
+        <v>1.226850552802254</v>
       </c>
       <c r="O10">
-        <v>2.006649398930819</v>
+        <v>2.363800422514771</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.473607832915036</v>
+        <v>1.248346503789435</v>
       </c>
       <c r="C11">
-        <v>0.6301561923235397</v>
+        <v>0.3360154372586237</v>
       </c>
       <c r="D11">
-        <v>0.0636498180421583</v>
+        <v>0.02956203724794193</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7845047210818308</v>
+        <v>0.7220852153004671</v>
       </c>
       <c r="G11">
-        <v>0.0007701467458213748</v>
+        <v>0.002405347764396638</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3118599645539959</v>
+        <v>0.6136252960728115</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.265286287499535</v>
+        <v>0.2917858744322359</v>
       </c>
       <c r="M11">
-        <v>0.6133556511341069</v>
+        <v>0.2852999361473394</v>
       </c>
       <c r="N11">
-        <v>0.6374098056823883</v>
+        <v>1.220104599513853</v>
       </c>
       <c r="O11">
-        <v>2.112417456844952</v>
+        <v>2.376010148408767</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.562916822589727</v>
+        <v>1.274489932431095</v>
       </c>
       <c r="C12">
-        <v>0.6425283381598774</v>
+        <v>0.3400022158864715</v>
       </c>
       <c r="D12">
-        <v>0.06500409122431705</v>
+        <v>0.03001064444065094</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8014906993323052</v>
+        <v>0.724868300068195</v>
       </c>
       <c r="G12">
-        <v>0.0007690702567856037</v>
+        <v>0.002404689074276644</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3143468065709953</v>
+        <v>0.612757752504038</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2705562832860551</v>
+        <v>0.2926944083428111</v>
       </c>
       <c r="M12">
-        <v>0.6290707976748919</v>
+        <v>0.2896051914669258</v>
       </c>
       <c r="N12">
-        <v>0.6322865141593397</v>
+        <v>1.217622313694442</v>
       </c>
       <c r="O12">
-        <v>2.153318930482612</v>
+        <v>2.380871710214336</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.543672789812604</v>
+        <v>1.268859183921563</v>
       </c>
       <c r="C13">
-        <v>0.6398632653983611</v>
+        <v>0.3391440893315973</v>
       </c>
       <c r="D13">
-        <v>0.06471241804996453</v>
+        <v>0.02991408220839986</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7978199990561308</v>
+        <v>0.7242657125612482</v>
       </c>
       <c r="G13">
-        <v>0.0007693016567113126</v>
+        <v>0.002404830355934832</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3138034675861263</v>
+        <v>0.6129420215786325</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2694183353204238</v>
+        <v>0.2924977632735875</v>
       </c>
       <c r="M13">
-        <v>0.6256834890892549</v>
+        <v>0.2886775233778422</v>
       </c>
       <c r="N13">
-        <v>0.6333809901699752</v>
+        <v>1.218153704998606</v>
       </c>
       <c r="O13">
-        <v>2.144471056880434</v>
+        <v>2.37981409519017</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.480950998788558</v>
+        <v>1.250497205146985</v>
       </c>
       <c r="C14">
-        <v>0.631173832501986</v>
+        <v>0.3363436558651358</v>
       </c>
       <c r="D14">
-        <v>0.06376123252049837</v>
+        <v>0.02959896844116372</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7858965878388489</v>
+        <v>0.7223127392892366</v>
       </c>
       <c r="G14">
-        <v>0.0007700579828817423</v>
+        <v>0.00240529331246933</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3120610839048013</v>
+        <v>0.6135527638930967</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2657185275095202</v>
+        <v>0.2918601801716818</v>
       </c>
       <c r="M14">
-        <v>0.6146473088965223</v>
+        <v>0.2856539270473277</v>
       </c>
       <c r="N14">
-        <v>0.6369843071049601</v>
+        <v>1.219898932319275</v>
       </c>
       <c r="O14">
-        <v>2.115764980752601</v>
+        <v>2.37640534012391</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.442560010480861</v>
+        <v>1.239250845982269</v>
       </c>
       <c r="C15">
-        <v>0.6258527264081977</v>
+        <v>0.3346268558847783</v>
       </c>
       <c r="D15">
-        <v>0.06317861733973729</v>
+        <v>0.02940579632086582</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7786292176606793</v>
+        <v>0.7211258568127192</v>
       </c>
       <c r="G15">
-        <v>0.0007705225551342791</v>
+        <v>0.002405578583386016</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3110163029039654</v>
+        <v>0.613934390715059</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2634608605395812</v>
+        <v>0.2914725008934624</v>
       </c>
       <c r="M15">
-        <v>0.6078953059626571</v>
+        <v>0.2838032210364645</v>
       </c>
       <c r="N15">
-        <v>0.6392173684487688</v>
+        <v>1.220977344046176</v>
       </c>
       <c r="O15">
-        <v>2.09829457838282</v>
+        <v>2.374348384443664</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.222958352364401</v>
+        <v>1.17481709689099</v>
       </c>
       <c r="C16">
-        <v>0.5953784036825311</v>
+        <v>0.3247664339102698</v>
       </c>
       <c r="D16">
-        <v>0.05983988529311546</v>
+        <v>0.02829643339497778</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7375166856550806</v>
+        <v>0.714467878699665</v>
       </c>
       <c r="G16">
-        <v>0.0007732051421499617</v>
+        <v>0.002407239405997988</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.305364014880702</v>
+        <v>0.6162366804946373</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2506503514142508</v>
+        <v>0.2892947209931691</v>
       </c>
       <c r="M16">
-        <v>0.5693186680425129</v>
+        <v>0.2732181841441488</v>
       </c>
       <c r="N16">
-        <v>0.6524036011376424</v>
+        <v>1.22730153003539</v>
       </c>
       <c r="O16">
-        <v>1.999851932114524</v>
+        <v>2.363035774752262</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.088570306657459</v>
+        <v>1.135303243149565</v>
       </c>
       <c r="C17">
-        <v>0.5766969801096877</v>
+        <v>0.3186977899926262</v>
       </c>
       <c r="D17">
-        <v>0.05779146373998856</v>
+        <v>0.02761377741199311</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7127517619098569</v>
+        <v>0.7105114741620895</v>
       </c>
       <c r="G17">
-        <v>0.0007748693433323241</v>
+        <v>0.002408281560882965</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3021851820933179</v>
+        <v>0.6177519091526449</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2429007096680493</v>
+        <v>0.2879978937086918</v>
       </c>
       <c r="M17">
-        <v>0.5457507443129899</v>
+        <v>0.2667431765268802</v>
       </c>
       <c r="N17">
-        <v>0.6608320541936834</v>
+        <v>1.231309948877097</v>
       </c>
       <c r="O17">
-        <v>1.940892884455934</v>
+        <v>2.356519403797023</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.011384562274543</v>
+        <v>1.112581579667051</v>
       </c>
       <c r="C18">
-        <v>0.5659556949535443</v>
+        <v>0.3152001280583931</v>
       </c>
       <c r="D18">
-        <v>0.05661310204037306</v>
+        <v>0.02722036814400042</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6986675672261526</v>
+        <v>0.7082828899102651</v>
       </c>
       <c r="G18">
-        <v>0.0007758335081172307</v>
+        <v>0.002408889560581717</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3004589417302554</v>
+        <v>0.6186611963738819</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2384817572146005</v>
+        <v>0.2872664033008192</v>
       </c>
       <c r="M18">
-        <v>0.5322285576999803</v>
+        <v>0.2630258182791678</v>
       </c>
       <c r="N18">
-        <v>0.6658012574337633</v>
+        <v>1.233662805111535</v>
       </c>
       <c r="O18">
-        <v>1.907484151354765</v>
+        <v>2.352926901852385</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.985268818987663</v>
+        <v>1.104889430101764</v>
       </c>
       <c r="C19">
-        <v>0.5623194171013495</v>
+        <v>0.3140146597108071</v>
       </c>
       <c r="D19">
-        <v>0.05621409315048709</v>
+        <v>0.02708703606988649</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6939256533763825</v>
+        <v>0.707536405708268</v>
       </c>
       <c r="G19">
-        <v>0.00077616116741903</v>
+        <v>0.002409096894244638</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2998916442797892</v>
+        <v>0.6189755493316973</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2369920208414271</v>
+        <v>0.2870212096709679</v>
       </c>
       <c r="M19">
-        <v>0.5276557022533339</v>
+        <v>0.2617683755468505</v>
       </c>
       <c r="N19">
-        <v>0.6675042906565309</v>
+        <v>1.234467569995225</v>
       </c>
       <c r="O19">
-        <v>1.89625674557783</v>
+        <v>2.351737246448295</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.1028644488552</v>
+        <v>1.139508984794986</v>
       </c>
       <c r="C20">
-        <v>0.5786852319939726</v>
+        <v>0.3193445477097043</v>
       </c>
       <c r="D20">
-        <v>0.05800953681223575</v>
+        <v>0.02768652650152603</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7153713062678975</v>
+        <v>0.7109277717176212</v>
       </c>
       <c r="G20">
-        <v>0.000774691469365569</v>
+        <v>0.002408169734219145</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3025129158686752</v>
+        <v>0.6175867010040079</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2437216567866471</v>
+        <v>0.2881344521181859</v>
       </c>
       <c r="M20">
-        <v>0.5482560738866908</v>
+        <v>0.2674317401393793</v>
       </c>
       <c r="N20">
-        <v>0.6599221966708129</v>
+        <v>1.230878348661683</v>
       </c>
       <c r="O20">
-        <v>1.947116603949866</v>
+        <v>2.357196982066966</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.499368026582943</v>
+        <v>1.255890381915606</v>
       </c>
       <c r="C21">
-        <v>0.6337258257712222</v>
+        <v>0.3371665143361611</v>
       </c>
       <c r="D21">
-        <v>0.06404061546977857</v>
+        <v>0.02969155750970032</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7893912211311118</v>
+        <v>0.7228844220477839</v>
       </c>
       <c r="G21">
-        <v>0.0007698355613741117</v>
+        <v>0.002405156977515522</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3125681561880072</v>
+        <v>0.6133718047668921</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2668034543111588</v>
+        <v>0.2920468581023528</v>
       </c>
       <c r="M21">
-        <v>0.6178872259967676</v>
+        <v>0.2865417529606091</v>
       </c>
       <c r="N21">
-        <v>0.6359205034806621</v>
+        <v>1.219384355846202</v>
       </c>
       <c r="O21">
-        <v>2.124172984065581</v>
+        <v>2.377400112048008</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.759726307431833</v>
+        <v>1.331993097972372</v>
       </c>
       <c r="C22">
-        <v>0.6697583655526671</v>
+        <v>0.3487493070726089</v>
       </c>
       <c r="D22">
-        <v>0.06798264553866318</v>
+        <v>0.03099500589316051</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8393604833897825</v>
+        <v>0.731118104382432</v>
       </c>
       <c r="G22">
-        <v>0.0007667205819494563</v>
+        <v>0.002403263957614366</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3201352016911656</v>
+        <v>0.6109540527754689</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2822678003693824</v>
+        <v>0.2947318354725468</v>
       </c>
       <c r="M22">
-        <v>0.6637456291944517</v>
+        <v>0.2990911496828375</v>
       </c>
       <c r="N22">
-        <v>0.6213855219964728</v>
+        <v>1.212293544220714</v>
       </c>
       <c r="O22">
-        <v>2.244878675724635</v>
+        <v>2.391991449397551</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.620644652770977</v>
+        <v>1.291372385149486</v>
       </c>
       <c r="C23">
-        <v>0.6505202361605029</v>
+        <v>0.3425733544109164</v>
       </c>
       <c r="D23">
-        <v>0.06587858318692952</v>
+        <v>0.03029997490061476</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.812536668483645</v>
+        <v>0.7266852424540957</v>
       </c>
       <c r="G23">
-        <v>0.0007683779079669835</v>
+        <v>0.002404267364756139</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.31600112238403</v>
+        <v>0.6122135943156621</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2739776502767199</v>
+        <v>0.2932871170031035</v>
       </c>
       <c r="M23">
-        <v>0.6392354187113582</v>
+        <v>0.2923878923189918</v>
       </c>
       <c r="N23">
-        <v>0.6290341941331192</v>
+        <v>1.216039514978121</v>
       </c>
       <c r="O23">
-        <v>2.179973486041604</v>
+        <v>2.38407671611094</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.096401833804464</v>
+        <v>1.137607583287831</v>
       </c>
       <c r="C24">
-        <v>0.5777863469861018</v>
+        <v>0.3190521756864655</v>
       </c>
       <c r="D24">
-        <v>0.05791094816656539</v>
+        <v>0.02765363956785194</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.714186534002593</v>
+        <v>0.7107394202943027</v>
       </c>
       <c r="G24">
-        <v>0.0007747718631536449</v>
+        <v>0.002408220263552764</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3023644327906538</v>
+        <v>0.6176612727414437</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2433503935530155</v>
+        <v>0.2880726702229879</v>
       </c>
       <c r="M24">
-        <v>0.5471233298365803</v>
+        <v>0.267120424285487</v>
       </c>
       <c r="N24">
-        <v>0.6603331591191619</v>
+        <v>1.231073324467516</v>
       </c>
       <c r="O24">
-        <v>1.944301347093415</v>
+        <v>2.356890169732566</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.535036007592566</v>
+        <v>0.9719688714693007</v>
       </c>
       <c r="C25">
-        <v>0.4994624265889911</v>
+        <v>0.2934085580656642</v>
       </c>
       <c r="D25">
-        <v>0.04930936847794243</v>
+        <v>0.02477002653551352</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6141294706013056</v>
+        <v>0.6953371131148387</v>
       </c>
       <c r="G25">
-        <v>0.0007819366059166494</v>
+        <v>0.002412812389209757</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2915167093218329</v>
+        <v>0.6249810438009114</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.211764705660535</v>
+        <v>0.2829991433425079</v>
       </c>
       <c r="M25">
-        <v>0.4490183105354149</v>
+        <v>0.2401297579099548</v>
       </c>
       <c r="N25">
-        <v>0.6986990483484519</v>
+        <v>1.249099034058744</v>
       </c>
       <c r="O25">
-        <v>1.709062956302603</v>
+        <v>2.333510126506582</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_245/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_245/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8502226508649073</v>
+        <v>2.124015675869543</v>
       </c>
       <c r="C2">
-        <v>0.274295890186977</v>
+        <v>0.4417661356235953</v>
       </c>
       <c r="D2">
-        <v>0.02262213656532452</v>
+        <v>0.04295955586281508</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6855360736699083</v>
+        <v>0.5448024604968893</v>
       </c>
       <c r="G2">
-        <v>0.00241647875992391</v>
+        <v>0.0007874598221479673</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6316091717484298</v>
+        <v>0.2864285456787101</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2797379928387187</v>
+        <v>0.1895700675374101</v>
       </c>
       <c r="M2">
-        <v>0.2204871106269835</v>
+        <v>0.377589912607327</v>
       </c>
       <c r="N2">
-        <v>1.263930770199558</v>
+        <v>0.7305674215271054</v>
       </c>
       <c r="O2">
-        <v>2.321387632367447</v>
+        <v>1.549646141068791</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7678603602510066</v>
+        <v>1.846351853884954</v>
       </c>
       <c r="C3">
-        <v>0.2612004100952277</v>
+        <v>0.4025864228584908</v>
       </c>
       <c r="D3">
-        <v>0.02115128993445836</v>
+        <v>0.03864130182658698</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6798511967606018</v>
+        <v>0.5001444639726031</v>
       </c>
       <c r="G3">
-        <v>0.002419142853369471</v>
+        <v>0.0007913656591288509</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6368723246262959</v>
+        <v>0.2845948665312683</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.277824218253258</v>
+        <v>0.175105589059136</v>
       </c>
       <c r="M3">
-        <v>0.2073207977430371</v>
+        <v>0.3295618744366138</v>
       </c>
       <c r="N3">
-        <v>1.274956989684959</v>
+        <v>0.7542665421483363</v>
       </c>
       <c r="O3">
-        <v>2.316338765796019</v>
+        <v>1.449053786548006</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.717367556390883</v>
+        <v>1.676138318048999</v>
       </c>
       <c r="C4">
-        <v>0.2530901214990422</v>
+        <v>0.3784731955857836</v>
       </c>
       <c r="D4">
-        <v>0.02024077513966205</v>
+        <v>0.03598115512031086</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6768320865624275</v>
+        <v>0.4737535514039948</v>
       </c>
       <c r="G4">
-        <v>0.002420867562895975</v>
+        <v>0.00079384660926346</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6404838703671061</v>
+        <v>0.284205694596988</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2767955168151985</v>
+        <v>0.1664828298123666</v>
       </c>
       <c r="M4">
-        <v>0.1993093642033941</v>
+        <v>0.3002226537283903</v>
       </c>
       <c r="N4">
-        <v>1.282208482665915</v>
+        <v>0.7698063051805377</v>
       </c>
       <c r="O4">
-        <v>2.314797927902845</v>
+        <v>1.390608504013045</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6968122334308191</v>
+        <v>1.606821772615575</v>
       </c>
       <c r="C5">
-        <v>0.2497677812238663</v>
+        <v>0.368630270732325</v>
       </c>
       <c r="D5">
-        <v>0.01986789001968958</v>
+        <v>0.0348947602342804</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6757202660513855</v>
+        <v>0.4632414424734961</v>
       </c>
       <c r="G5">
-        <v>0.002421592828447503</v>
+        <v>0.0007948787703181409</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.642051084127722</v>
+        <v>0.284223940372069</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2764131683536846</v>
+        <v>0.1630303615163342</v>
       </c>
       <c r="M5">
-        <v>0.1960631333633529</v>
+        <v>0.2882994612851277</v>
       </c>
       <c r="N5">
-        <v>1.285284647921792</v>
+        <v>0.776380567864372</v>
       </c>
       <c r="O5">
-        <v>2.314561833932203</v>
+        <v>1.367576696909083</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6934003385159144</v>
+        <v>1.59531402893316</v>
       </c>
       <c r="C6">
-        <v>0.2492150674320044</v>
+        <v>0.3669947937897007</v>
       </c>
       <c r="D6">
-        <v>0.01980586201222678</v>
+        <v>0.03471421766698768</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6755428041529257</v>
+        <v>0.4615100901241149</v>
       </c>
       <c r="G6">
-        <v>0.002421714614976039</v>
+        <v>0.0007950514472685262</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6423170837063878</v>
+        <v>0.2842374117888475</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2763519071917599</v>
+        <v>0.1624606860433033</v>
       </c>
       <c r="M6">
-        <v>0.1955252221524404</v>
+        <v>0.2863214633300544</v>
       </c>
       <c r="N6">
-        <v>1.285802760880927</v>
+        <v>0.7774866221655827</v>
       </c>
       <c r="O6">
-        <v>2.314546287472183</v>
+        <v>1.3637983022291</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7170902537554582</v>
+        <v>1.675203329114794</v>
       </c>
       <c r="C7">
-        <v>0.2530453852019008</v>
+        <v>0.3783405205832651</v>
       </c>
       <c r="D7">
-        <v>0.02023575371608644</v>
+        <v>0.0359665134062368</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6768166124659913</v>
+        <v>0.4736108210771803</v>
       </c>
       <c r="G7">
-        <v>0.002420877253194516</v>
+        <v>0.000793860443233917</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6405046198493167</v>
+        <v>0.2842052355012328</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2767902110340685</v>
+        <v>0.1664360247728496</v>
       </c>
       <c r="M7">
-        <v>0.1992655092503099</v>
+        <v>0.3000617270647936</v>
       </c>
       <c r="N7">
-        <v>1.282249478371497</v>
+        <v>0.7698939982308346</v>
       </c>
       <c r="O7">
-        <v>2.31479315778202</v>
+        <v>1.390294773672139</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8218087011202897</v>
+        <v>2.028206869301243</v>
       </c>
       <c r="C8">
-        <v>0.2697951161098047</v>
+        <v>0.4282672824961082</v>
       </c>
       <c r="D8">
-        <v>0.02211653804376823</v>
+        <v>0.04147232480841723</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6834780478668065</v>
+        <v>0.5291806167854674</v>
       </c>
       <c r="G8">
-        <v>0.002417378918612267</v>
+        <v>0.0007887895927243171</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6333450112017971</v>
+        <v>0.2856382001589033</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2790477750013949</v>
+        <v>0.1845268280702754</v>
       </c>
       <c r="M8">
-        <v>0.2159323871763519</v>
+        <v>0.3609955730342804</v>
       </c>
       <c r="N8">
-        <v>1.267632756332929</v>
+        <v>0.7385295028870047</v>
       </c>
       <c r="O8">
-        <v>2.319323008878769</v>
+        <v>1.514242548802116</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.027733164201663</v>
+        <v>2.723696223393347</v>
       </c>
       <c r="C9">
-        <v>0.3020828056101834</v>
+        <v>0.5258413525682215</v>
       </c>
       <c r="D9">
-        <v>0.02574523859521349</v>
+        <v>0.05220873688943328</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7002858259977671</v>
+        <v>0.6471052516684779</v>
       </c>
       <c r="G9">
-        <v>0.002411221411438744</v>
+        <v>0.0007794857731587751</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6223227679381829</v>
+        <v>0.2946934346227437</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2846345087666435</v>
+        <v>0.2222275669454206</v>
       </c>
       <c r="M9">
-        <v>0.2491860462005704</v>
+        <v>0.4819226973361026</v>
       </c>
       <c r="N9">
-        <v>1.242785025059348</v>
+        <v>0.685191318051622</v>
       </c>
       <c r="O9">
-        <v>2.340593385131939</v>
+        <v>1.786000087338209</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.179326636567737</v>
+        <v>3.238308732650808</v>
       </c>
       <c r="C10">
-        <v>0.3254579366024188</v>
+        <v>0.5975106826227261</v>
       </c>
       <c r="D10">
-        <v>0.02837422519262844</v>
+        <v>0.06007360824962404</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7149257070329185</v>
+        <v>0.7403647624117582</v>
       </c>
       <c r="G10">
-        <v>0.002407121650231514</v>
+        <v>0.0007730161773284316</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6160689020954919</v>
+        <v>0.3057408646329733</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2894446495395613</v>
+        <v>0.2515399689013975</v>
       </c>
       <c r="M10">
-        <v>0.2739579567332413</v>
+        <v>0.5720126382709125</v>
       </c>
       <c r="N10">
-        <v>1.226850552802254</v>
+        <v>0.6514585361660465</v>
       </c>
       <c r="O10">
-        <v>2.363800422514771</v>
+        <v>2.00664939893079</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.248346503789435</v>
+        <v>3.473607832915093</v>
       </c>
       <c r="C11">
-        <v>0.3360154372586237</v>
+        <v>0.6301561923237955</v>
       </c>
       <c r="D11">
-        <v>0.02956203724794193</v>
+        <v>0.06364981804198067</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7220852153004671</v>
+        <v>0.7845047210818308</v>
       </c>
       <c r="G11">
-        <v>0.002405347764396638</v>
+        <v>0.0007701467458499713</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6136252960728115</v>
+        <v>0.3118599645539959</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2917858744322359</v>
+        <v>0.265286287499336</v>
       </c>
       <c r="M11">
-        <v>0.2852999361473394</v>
+        <v>0.6133556511341212</v>
       </c>
       <c r="N11">
-        <v>1.220104599513853</v>
+        <v>0.6374098056824593</v>
       </c>
       <c r="O11">
-        <v>2.376010148408767</v>
+        <v>2.112417456844952</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.274489932431095</v>
+        <v>3.5629168225895</v>
       </c>
       <c r="C12">
-        <v>0.3400022158864715</v>
+        <v>0.6425283381598774</v>
       </c>
       <c r="D12">
-        <v>0.03001064444065094</v>
+        <v>0.06500409122414652</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.724868300068195</v>
+        <v>0.8014906993323052</v>
       </c>
       <c r="G12">
-        <v>0.002404689074276644</v>
+        <v>0.0007690702568420287</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.612757752504038</v>
+        <v>0.3143468065710167</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2926944083428111</v>
+        <v>0.270556283285984</v>
       </c>
       <c r="M12">
-        <v>0.2896051914669258</v>
+        <v>0.6290707976748919</v>
       </c>
       <c r="N12">
-        <v>1.217622313694442</v>
+        <v>0.6322865141593397</v>
       </c>
       <c r="O12">
-        <v>2.380871710214336</v>
+        <v>2.153318930482612</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.268859183921563</v>
+        <v>3.543672789812433</v>
       </c>
       <c r="C13">
-        <v>0.3391440893315973</v>
+        <v>0.6398632653985032</v>
       </c>
       <c r="D13">
-        <v>0.02991408220839986</v>
+        <v>0.06471241804995032</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7242657125612482</v>
+        <v>0.7978199990561166</v>
       </c>
       <c r="G13">
-        <v>0.002404830355934832</v>
+        <v>0.000769301656710608</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6129420215786325</v>
+        <v>0.3138034675861263</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2924977632735875</v>
+        <v>0.2694183353203528</v>
       </c>
       <c r="M13">
-        <v>0.2886775233778422</v>
+        <v>0.6256834890892762</v>
       </c>
       <c r="N13">
-        <v>1.218153704998606</v>
+        <v>0.633380990169897</v>
       </c>
       <c r="O13">
-        <v>2.37981409519017</v>
+        <v>2.144471056880462</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.250497205146985</v>
+        <v>3.480950998788671</v>
       </c>
       <c r="C14">
-        <v>0.3363436558651358</v>
+        <v>0.6311738325019576</v>
       </c>
       <c r="D14">
-        <v>0.02959896844116372</v>
+        <v>0.06376123252032784</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7223127392892366</v>
+        <v>0.7858965878388346</v>
       </c>
       <c r="G14">
-        <v>0.00240529331246933</v>
+        <v>0.0007700579828821576</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6135527638930967</v>
+        <v>0.3120610839048013</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2918601801716818</v>
+        <v>0.2657185275096055</v>
       </c>
       <c r="M14">
-        <v>0.2856539270473277</v>
+        <v>0.6146473088965223</v>
       </c>
       <c r="N14">
-        <v>1.219898932319275</v>
+        <v>0.6369843071050241</v>
       </c>
       <c r="O14">
-        <v>2.37640534012391</v>
+        <v>2.115764980752544</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.239250845982269</v>
+        <v>3.442560010481031</v>
       </c>
       <c r="C15">
-        <v>0.3346268558847783</v>
+        <v>0.625852726408425</v>
       </c>
       <c r="D15">
-        <v>0.02940579632086582</v>
+        <v>0.06317861733985808</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7211258568127192</v>
+        <v>0.7786292176606651</v>
       </c>
       <c r="G15">
-        <v>0.002405578583386016</v>
+        <v>0.0007705225551638001</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.613934390715059</v>
+        <v>0.3110163029039512</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2914725008934624</v>
+        <v>0.263460860539638</v>
       </c>
       <c r="M15">
-        <v>0.2838032210364645</v>
+        <v>0.6078953059626286</v>
       </c>
       <c r="N15">
-        <v>1.220977344046176</v>
+        <v>0.6392173684487616</v>
       </c>
       <c r="O15">
-        <v>2.374348384443664</v>
+        <v>2.098294578382792</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.17481709689099</v>
+        <v>3.222958352364287</v>
       </c>
       <c r="C16">
-        <v>0.3247664339102698</v>
+        <v>0.5953784036825027</v>
       </c>
       <c r="D16">
-        <v>0.02829643339497778</v>
+        <v>0.05983988529293782</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.714467878699665</v>
+        <v>0.7375166856550806</v>
       </c>
       <c r="G16">
-        <v>0.002407239405997988</v>
+        <v>0.000773205142150232</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6162366804946373</v>
+        <v>0.3053640148806807</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2892947209931691</v>
+        <v>0.2506503514141656</v>
       </c>
       <c r="M16">
-        <v>0.2732181841441488</v>
+        <v>0.5693186680425057</v>
       </c>
       <c r="N16">
-        <v>1.22730153003539</v>
+        <v>0.6524036011375713</v>
       </c>
       <c r="O16">
-        <v>2.363035774752262</v>
+        <v>1.999851932114524</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.135303243149565</v>
+        <v>3.088570306657459</v>
       </c>
       <c r="C17">
-        <v>0.3186977899926262</v>
+        <v>0.5766969801095172</v>
       </c>
       <c r="D17">
-        <v>0.02761377741199311</v>
+        <v>0.05779146373986777</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7105114741620895</v>
+        <v>0.7127517619098569</v>
       </c>
       <c r="G17">
-        <v>0.002408281560882965</v>
+        <v>0.0007748693433588974</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6177519091526449</v>
+        <v>0.3021851820932966</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2879978937086918</v>
+        <v>0.2429007096680493</v>
       </c>
       <c r="M17">
-        <v>0.2667431765268802</v>
+        <v>0.5457507443129899</v>
       </c>
       <c r="N17">
-        <v>1.231309948877097</v>
+        <v>0.6608320541936052</v>
       </c>
       <c r="O17">
-        <v>2.356519403797023</v>
+        <v>1.940892884455991</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.112581579667051</v>
+        <v>3.011384562274429</v>
       </c>
       <c r="C18">
-        <v>0.3152001280583931</v>
+        <v>0.5659556949534874</v>
       </c>
       <c r="D18">
-        <v>0.02722036814400042</v>
+        <v>0.05661310204031622</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7082828899102651</v>
+        <v>0.6986675672261526</v>
       </c>
       <c r="G18">
-        <v>0.002408889560581717</v>
+        <v>0.0007758335081446833</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6186611963738819</v>
+        <v>0.3004589417302697</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2872664033008192</v>
+        <v>0.2384817572146289</v>
       </c>
       <c r="M18">
-        <v>0.2630258182791678</v>
+        <v>0.5322285576999874</v>
       </c>
       <c r="N18">
-        <v>1.233662805111535</v>
+        <v>0.6658012574337491</v>
       </c>
       <c r="O18">
-        <v>2.352926901852385</v>
+        <v>1.907484151354709</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.104889430101764</v>
+        <v>2.98526881898772</v>
       </c>
       <c r="C19">
-        <v>0.3140146597108071</v>
+        <v>0.5623194171014916</v>
       </c>
       <c r="D19">
-        <v>0.02708703606988649</v>
+        <v>0.05621409315071446</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.707536405708268</v>
+        <v>0.6939256533763825</v>
       </c>
       <c r="G19">
-        <v>0.002409096894244638</v>
+        <v>0.0007761611674207964</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6189755493316973</v>
+        <v>0.299891644279807</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2870212096709679</v>
+        <v>0.2369920208414129</v>
       </c>
       <c r="M19">
-        <v>0.2617683755468505</v>
+        <v>0.5276557022533339</v>
       </c>
       <c r="N19">
-        <v>1.234467569995225</v>
+        <v>0.6675042906564741</v>
       </c>
       <c r="O19">
-        <v>2.351737246448295</v>
+        <v>1.89625674557783</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.139508984794986</v>
+        <v>3.1028644488552</v>
       </c>
       <c r="C20">
-        <v>0.3193445477097043</v>
+        <v>0.5786852319940863</v>
       </c>
       <c r="D20">
-        <v>0.02768652650152603</v>
+        <v>0.0580095368121718</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7109277717176212</v>
+        <v>0.7153713062678975</v>
       </c>
       <c r="G20">
-        <v>0.002408169734219145</v>
+        <v>0.0007746914693367871</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6175867010040079</v>
+        <v>0.3025129158686681</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2881344521181859</v>
+        <v>0.2437216567866756</v>
       </c>
       <c r="M20">
-        <v>0.2674317401393793</v>
+        <v>0.5482560738866837</v>
       </c>
       <c r="N20">
-        <v>1.230878348661683</v>
+        <v>0.6599221966708129</v>
       </c>
       <c r="O20">
-        <v>2.357196982066966</v>
+        <v>1.94711660394978</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.255890381915606</v>
+        <v>3.499368026582943</v>
       </c>
       <c r="C21">
-        <v>0.3371665143361611</v>
+        <v>0.6337258257714495</v>
       </c>
       <c r="D21">
-        <v>0.02969155750970032</v>
+        <v>0.06404061546989226</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7228844220477839</v>
+        <v>0.7893912211311118</v>
       </c>
       <c r="G21">
-        <v>0.002405156977515522</v>
+        <v>0.0007698355613456201</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6133718047668921</v>
+        <v>0.3125681561879929</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2920468581023528</v>
+        <v>0.2668034543112583</v>
       </c>
       <c r="M21">
-        <v>0.2865417529606091</v>
+        <v>0.6178872259967747</v>
       </c>
       <c r="N21">
-        <v>1.219384355846202</v>
+        <v>0.6359205034807118</v>
       </c>
       <c r="O21">
-        <v>2.377400112048008</v>
+        <v>2.124172984065638</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.331993097972372</v>
+        <v>3.759726307431947</v>
       </c>
       <c r="C22">
-        <v>0.3487493070726089</v>
+        <v>0.669758365552525</v>
       </c>
       <c r="D22">
-        <v>0.03099500589316051</v>
+        <v>0.06798264553854949</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.731118104382432</v>
+        <v>0.8393604833897825</v>
       </c>
       <c r="G22">
-        <v>0.002403263957614366</v>
+        <v>0.0007667205819486686</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6109540527754689</v>
+        <v>0.3201352016911727</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2947318354725468</v>
+        <v>0.2822678003693966</v>
       </c>
       <c r="M22">
-        <v>0.2990911496828375</v>
+        <v>0.6637456291944446</v>
       </c>
       <c r="N22">
-        <v>1.212293544220714</v>
+        <v>0.6213855219964728</v>
       </c>
       <c r="O22">
-        <v>2.391991449397551</v>
+        <v>2.244878675724664</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.291372385149486</v>
+        <v>3.620644652771091</v>
       </c>
       <c r="C23">
-        <v>0.3425733544109164</v>
+        <v>0.6505202361605882</v>
       </c>
       <c r="D23">
-        <v>0.03029997490061476</v>
+        <v>0.06587858318691531</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7266852424540957</v>
+        <v>0.8125366684836592</v>
       </c>
       <c r="G23">
-        <v>0.002404267364756139</v>
+        <v>0.0007683779079666298</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6122135943156621</v>
+        <v>0.31600112238403</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2932871170031035</v>
+        <v>0.2739776502768052</v>
       </c>
       <c r="M23">
-        <v>0.2923878923189918</v>
+        <v>0.6392354187113511</v>
       </c>
       <c r="N23">
-        <v>1.216039514978121</v>
+        <v>0.6290341941331192</v>
       </c>
       <c r="O23">
-        <v>2.38407671611094</v>
+        <v>2.179973486041661</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.137607583287831</v>
+        <v>3.096401833804464</v>
       </c>
       <c r="C24">
-        <v>0.3190521756864655</v>
+        <v>0.5777863469860733</v>
       </c>
       <c r="D24">
-        <v>0.02765363956785194</v>
+        <v>0.05791094816643749</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7107394202943027</v>
+        <v>0.7141865340025646</v>
       </c>
       <c r="G24">
-        <v>0.002408220263552764</v>
+        <v>0.0007747718631251056</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6176612727414437</v>
+        <v>0.3023644327906538</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2880726702229879</v>
+        <v>0.2433503935531434</v>
       </c>
       <c r="M24">
-        <v>0.267120424285487</v>
+        <v>0.5471233298365874</v>
       </c>
       <c r="N24">
-        <v>1.231073324467516</v>
+        <v>0.6603331591191406</v>
       </c>
       <c r="O24">
-        <v>2.356890169732566</v>
+        <v>1.944301347093358</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9719688714693007</v>
+        <v>2.535036007592339</v>
       </c>
       <c r="C25">
-        <v>0.2934085580656642</v>
+        <v>0.49946242658919</v>
       </c>
       <c r="D25">
-        <v>0.02477002653551352</v>
+        <v>0.04930936847781453</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6953371131148387</v>
+        <v>0.6141294706013056</v>
       </c>
       <c r="G25">
-        <v>0.002412812389209757</v>
+        <v>0.0007819366059434007</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6249810438009114</v>
+        <v>0.29151670932184</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2829991433425079</v>
+        <v>0.2117647056604142</v>
       </c>
       <c r="M25">
-        <v>0.2401297579099548</v>
+        <v>0.4490183105354077</v>
       </c>
       <c r="N25">
-        <v>1.249099034058744</v>
+        <v>0.6986990483485016</v>
       </c>
       <c r="O25">
-        <v>2.333510126506582</v>
+        <v>1.709062956302631</v>
       </c>
     </row>
   </sheetData>
